--- a/data/trans_bre/P15B_tráfico-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P15B_tráfico-Estudios-trans_bre.xlsx
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-39.0828702185883</v>
+        <v>-38.44379496713941</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-27.51577936004126</v>
+        <v>-26.32739867577482</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-20.79516608508</v>
+        <v>-21.66378619377766</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-33.20902430494632</v>
+        <v>-32.35152921985753</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>-0.8922178716623814</v>
+        <v>-0.8940171484032149</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>-0.8149211153348638</v>
+        <v>-0.8249190916391888</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>-0.8221996025703415</v>
+        <v>-0.8385870619907105</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>-0.8257594835489984</v>
+        <v>-0.8400431657043614</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.5784817464128692</v>
+        <v>1.253946389851301</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-2.732617752452513</v>
+        <v>-2.34557338266764</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>4.425533987211624</v>
+        <v>3.224265296934526</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>-3.631965970017311</v>
+        <v>-2.894118974775878</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.1849820992681266</v>
+        <v>0.2024162504358374</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>-0.1210227881856277</v>
+        <v>-0.1092452206517821</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.8466331694938708</v>
+        <v>0.7628489506207201</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>-0.1999869968821204</v>
+        <v>-0.1497003778950012</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>1.563866608727274</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.338677367685393</v>
+        <v>5.338677367685388</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>-0.09013275832503687</v>
@@ -749,7 +749,7 @@
         <v>0.06382787123879125</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.2234781998917238</v>
+        <v>0.2234781998917235</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>-20.37195807328115</v>
+        <v>-22.42610883468148</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>-11.65498891585849</v>
+        <v>-11.81203005201615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>-10.17458192251156</v>
+        <v>-10.14875505416683</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>-6.965646152205021</v>
+        <v>-6.99330073860827</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.5206172259515668</v>
+        <v>-0.5514234980942575</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.3938725283608072</v>
+        <v>-0.4077858885686286</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.357092744754964</v>
+        <v>-0.355688916845349</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>-0.2569661507745958</v>
+        <v>-0.2703433884573179</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>16.53960000941973</v>
+        <v>15.39213645914928</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>9.605854652174163</v>
+        <v>8.872992399722269</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>12.99765984422743</v>
+        <v>14.40358428817041</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>18.02922623179531</v>
+        <v>18.23340317175894</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.6223240676759834</v>
+        <v>0.6514307118981717</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.4613818650349106</v>
+        <v>0.4018553188259498</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.6674924395364255</v>
+        <v>0.7303256162843178</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.9479814563016588</v>
+        <v>0.9882278298138178</v>
       </c>
     </row>
     <row r="10">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-36.02896994898512</v>
+        <v>-33.44016504086963</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-17.43151952673329</v>
+        <v>-17.31249658763524</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-26.62170560401927</v>
+        <v>-29.93978257618342</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-38.93571363355662</v>
+        <v>-34.69421545234673</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>-0.821943132497567</v>
+        <v>-0.789019080872451</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.5434850935439802</v>
+        <v>-0.5341538538734112</v>
       </c>
       <c r="I11" s="6" t="n">
         <v>-1</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.6688735710171138</v>
+        <v>-0.6454889827891166</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>30.91139711018942</v>
+        <v>31.32359027003839</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>31.78243452276867</v>
+        <v>32.14240729582627</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>12.37013794225758</v>
+        <v>12.35304849078244</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>8.200926747475206</v>
+        <v>12.11065042257163</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>2.210309261684948</v>
+        <v>2.57899152528117</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>2.639158593245178</v>
+        <v>3.081316312558716</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>2.961568280094008</v>
+        <v>2.579836424368857</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.3659120063583974</v>
+        <v>0.6163418462849115</v>
       </c>
     </row>
     <row r="13">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>-22.95680562768316</v>
+        <v>-22.18342706139991</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>-13.78834821180375</v>
+        <v>-14.12456130273019</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>-12.34990791920311</v>
+        <v>-13.72189021307554</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>-14.87873556124903</v>
+        <v>-13.77422400553345</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.6222400561055136</v>
+        <v>-0.5904534079824818</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.4760285423772186</v>
+        <v>-0.4807274191205939</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.4896644977108086</v>
+        <v>-0.5020267980544924</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.4541205150935362</v>
+        <v>-0.4209487738282787</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.4838002325402367</v>
+        <v>1.056847754322436</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.3806478809644598</v>
+        <v>1.305818423897166</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>3.528173607386051</v>
+        <v>2.630365944803628</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.111065769952596</v>
+        <v>4.174064454749169</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.03639728153271475</v>
+        <v>0.04852899155352208</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.02146605085700738</v>
+        <v>0.0581501821819724</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.2068148559119054</v>
+        <v>0.1742489115930918</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.1572471726991971</v>
+        <v>0.1932196162296641</v>
       </c>
     </row>
     <row r="16">
